--- a/Basededatos/DGA1.xlsx
+++ b/Basededatos/DGA1.xlsx
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D9A9C-9A6B-49EB-A470-291754C1FB24}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
